--- a/public/Modelo.xlsx
+++ b/public/Modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\juanjo\webmap_projects\catalogo-portales2\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\juanjo\javascript_projects\buscador-rema\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A812EB-E8D6-440F-94A4-18784F8BF7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674F6199-6E92-4B15-9C0C-B17F335FFF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -132,13 +132,16 @@
   </si>
   <si>
     <t>ECI-8</t>
+  </si>
+  <si>
+    <t>Evolución del número de denuncias por extracción de áridos recepcionadas por la Superintendencia del Medio Ambiente, por región (2013-2024)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +161,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +535,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -550,607 +559,639 @@
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{CC538E8C-A8C9-4A1E-A3A7-76A57BDE3A28}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{DB462035-947F-40DE-875D-79559409A848}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{5D0FC578-D035-4C17-BCDB-BCDFEA48D0FE}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{5CE57538-7664-4E8B-BBB2-DC51114BCD8E}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{9180EAB9-EC0E-42EE-8362-5224EEA69568}"/>
-    <hyperlink ref="F17" r:id="rId6" xr:uid="{66C7A7D2-C252-4D55-822E-70D25A9A191A}"/>
-    <hyperlink ref="F20" r:id="rId7" xr:uid="{28AA90B6-7EE3-4DB9-BDDD-7B2B196EC884}"/>
-    <hyperlink ref="H2" r:id="rId8" xr:uid="{9408417E-C365-47F2-93C7-5BA9220DE6C8}"/>
-    <hyperlink ref="H5" r:id="rId9" xr:uid="{F91B86CC-591D-46A0-8A0B-B6251DF9E74C}"/>
-    <hyperlink ref="H8" r:id="rId10" xr:uid="{C9A385E1-0299-4E8B-A2D1-B80C78975DCB}"/>
-    <hyperlink ref="H11" r:id="rId11" xr:uid="{6AEFD09B-1013-4188-830D-9C153F13102E}"/>
-    <hyperlink ref="H14" r:id="rId12" xr:uid="{EF9B13B0-5AF2-4E5A-96FC-1FD11BE13D1C}"/>
-    <hyperlink ref="H17" r:id="rId13" xr:uid="{8CBCBE98-8D45-48DE-B168-198EC654A3DC}"/>
-    <hyperlink ref="H20" r:id="rId14" xr:uid="{0F881A21-69DF-4651-8425-4E72BF491B68}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{CC538E8C-A8C9-4A1E-A3A7-76A57BDE3A28}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{DB462035-947F-40DE-875D-79559409A848}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{5D0FC578-D035-4C17-BCDB-BCDFEA48D0FE}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{5CE57538-7664-4E8B-BBB2-DC51114BCD8E}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{9180EAB9-EC0E-42EE-8362-5224EEA69568}"/>
+    <hyperlink ref="F18" r:id="rId6" xr:uid="{66C7A7D2-C252-4D55-822E-70D25A9A191A}"/>
+    <hyperlink ref="F21" r:id="rId7" xr:uid="{28AA90B6-7EE3-4DB9-BDDD-7B2B196EC884}"/>
+    <hyperlink ref="H3" r:id="rId8" xr:uid="{9408417E-C365-47F2-93C7-5BA9220DE6C8}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{F91B86CC-591D-46A0-8A0B-B6251DF9E74C}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{C9A385E1-0299-4E8B-A2D1-B80C78975DCB}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{6AEFD09B-1013-4188-830D-9C153F13102E}"/>
+    <hyperlink ref="H15" r:id="rId12" xr:uid="{EF9B13B0-5AF2-4E5A-96FC-1FD11BE13D1C}"/>
+    <hyperlink ref="H18" r:id="rId13" xr:uid="{8CBCBE98-8D45-48DE-B168-198EC654A3DC}"/>
+    <hyperlink ref="H21" r:id="rId14" xr:uid="{0F881A21-69DF-4651-8425-4E72BF491B68}"/>
+    <hyperlink ref="F2" r:id="rId15" xr:uid="{608C90B9-0A1B-4954-9578-D0448CC349EF}"/>
+    <hyperlink ref="H2" r:id="rId16" xr:uid="{CE80476A-3248-4C34-84E1-D3ECA33A1A9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId15"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>